--- a/backend/outputs/classifications_vpn_selection.xlsx
+++ b/backend/outputs/classifications_vpn_selection.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,17 +441,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>theme</t>
+          <t>participant_id</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>participant_id</t>
+          <t>response</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>quote</t>
+          <t>assigned_themes</t>
         </is>
       </c>
     </row>
@@ -463,17 +463,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Privacy and Security</t>
+          <t>P4434</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P4435</t>
+          <t>not in US or EU data protection/retention policies</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>No logs policy and multiple servers across multiple locations.</t>
+          <t>Privacy and Security</t>
         </is>
       </c>
     </row>
@@ -485,17 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Privacy and Security</t>
+          <t>P4435</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P4451</t>
+          <t>No logs policy and multiple servers across multiple locations.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>To make sure my private connection is safe and also not to be tracked online.</t>
+          <t>Privacy and Security</t>
         </is>
       </c>
     </row>
@@ -507,17 +507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Privacy and Security</t>
+          <t>P4444</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P4811</t>
+          <t>I really wanted to protect my identity without having my information stolen.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Needs to protect my identity and IP address so that bad actors cannot access critical information from my phone or computer.</t>
+          <t>Privacy and Security</t>
         </is>
       </c>
     </row>
@@ -529,17 +529,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>P4446</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>The speed of the internet, and security is the most fundamental aspect of the digital internet that we can access</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Performance and Reliability</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>P4490</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>I look at speed and availability of locations.</t>
         </is>
       </c>
     </row>
@@ -551,17 +551,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Performance and Reliability</t>
+          <t>P4450</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P4741</t>
+          <t>Security.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>I consider the speed of the vpn and the locations available to me.</t>
+          <t>Privacy and Security</t>
         </is>
       </c>
     </row>
@@ -573,17 +573,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Performance and Reliability</t>
+          <t>P4451</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P4829</t>
+          <t>To make sure my private connection is safe and also not to be tracked online.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Fast speeds and a reliable connection are the two most important features I look for when choosing a VPN.</t>
+          <t>Privacy and Security</t>
         </is>
       </c>
     </row>
@@ -595,17 +595,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cost and Value</t>
+          <t>P4453</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>P4505</t>
+          <t>I want to make sure I’m completely safe online and not be tracked to have my activity and purchases monitored.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>The price and the security benefits offered.</t>
+          <t>Privacy and Security</t>
         </is>
       </c>
     </row>
@@ -617,17 +617,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cost and Value</t>
+          <t>P4457</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>P4808</t>
+          <t>what and where I can access different countries streaming</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>I want it to be good I want it to protect my internet and I want I don't want all my data just out there.</t>
+          <t>Ease of Use and Accessibility</t>
         </is>
       </c>
     </row>
@@ -639,17 +639,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cost and Value</t>
+          <t>P4458</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P4810</t>
+          <t>Having it protect my information but at the same time letting me do everything I need to do without restraint.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Speed and ease of use, price.</t>
+          <t>Privacy and Security, Ease of Use and Accessibility</t>
         </is>
       </c>
     </row>
@@ -661,17 +661,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>User Experience and Support</t>
+          <t>P4459</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P4725</t>
+          <t>The amount of privacy protection it provides that I can proudly trust.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>I want to know that my personal info is safe.</t>
+          <t>Privacy and Security</t>
         </is>
       </c>
     </row>
@@ -683,17 +683,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>User Experience and Support</t>
+          <t>P4460</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>P4790</t>
+          <t>The features to be able to protect my identity.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>User-friendly interface and features.</t>
+          <t>Privacy and Security</t>
         </is>
       </c>
     </row>
@@ -705,17 +705,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>User Experience and Support</t>
+          <t>P4461</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>P4801</t>
+          <t>I use what is recommended by my security service.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>If the VPN is compatible with your devices and operating systems, and if it allows simultaneous connections.</t>
+          <t>Ease of Use and Accessibility</t>
         </is>
       </c>
     </row>
@@ -727,17 +727,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Access to Content</t>
+          <t>P4466</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>P4748</t>
+          <t>reputation, cost, reliability, other users opinions</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Accessing region restricted content.</t>
+          <t>Cost and Value</t>
         </is>
       </c>
     </row>
@@ -749,17 +749,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Access to Content</t>
+          <t>P4467</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>P4812</t>
+          <t>Privacy and convenience.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Geo unlocking, Free plan, protect data.</t>
+          <t>Privacy and Security, Ease of Use and Accessibility</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,1975 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Access to Content</t>
+          <t>P4468</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>I want a good anonymous browser session.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Privacy and Security, Ease of Use and Accessibility</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>P4470</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>price of product and level of security</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Cost and Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>P4471</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>I want it to be very reliable and secure. It must be top quality.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Performance and Reliability, Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>P4473</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>I am looking for an effective, secure VPN.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Privacy and Security, Performance and Reliability</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>P4475</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Privacy.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>P4477</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Costs, locations, ease of use and quality.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Cost and Value, Ease of Use and Accessibility</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>P4479</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>I consider the available locations as well as security parameters the vpn might possess to protect my information.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Privacy and Security, Ease of Use and Accessibility</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>P4480</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>one one two in a vpn the main features and capabilities that i like are privacy really matters to me most it's mainly because my granddaughter uses my computer most of the time and i don't need any or anything coming you know and trying to do anything that they're not supposed to be doing and also for my personal information i like to keep my things safe</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>P4481</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Definitely I usually check experience, reviews, support and availability.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Cost and Value, Ease of Use and Accessibility</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>P4483</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Something that protects my connections.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>P4484</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Use across devices.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Ease of Use and Accessibility</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>P4485</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>I take into consideration things like speed, privacy and availability of locations.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Performance and Reliability, Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>P4489</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>I look at speed and availability of locations.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Performance and Reliability, Ease of Use and Accessibility</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>P4490</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Security.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>P4491</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>I look to make sure if something gets by them. They will take the initiative to make that right with me.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>P4496</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>My work chose it.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Ease of Use and Accessibility</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>P4505</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>That's a good reason to get some protection online. Now, when you are selecting a VPN to use, could you share what are the most important features or capabilities you consider?</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>P4510</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>I appreciate your clear response. When it comes to choosing a VPN, could you kindly share the key features or capabilities you'd consider most important?</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>P4513</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>I see, securing your connection on public WiFi networks is indeed a great application for a VPN! Moving on, may I ask, what are the most essential features or capabilities that you take into account when selecting a VPN service?</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>P4514</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>When you are in the process of choosing a VPN service, could you please share which features or capabilities are most crucial for you?</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>P4516</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>You've mentioned that you use a VPN for privacy and security, which is very important indeed. Considering this, what would you say are the most essential features or capabilities you look for when selecting a VPN service?</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>P4519</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Thanks for sharing. Now, I'd like to know, when choosing a VPN, what are the most important features or capabilities that you consider?</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Cost and Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>P4520</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>When it comes to selecting a VPN, what are the key features or capabilities you take into consideration?</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Cost and Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>P4524</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Having heard why you use a VPN, I'm wondering what critical features or functions you prioritize when choosing a specific VPN service?</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>P4525</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>I appreciate your insights regarding VPN usage. Now, when it comes to choosing a VPN, what are the most crucial features or capabilities that you take into account?</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>P4528</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>When you're choosing a VPN, what would you say are the most critical features or capabilities that you consider?</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>P4531</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Understood! In light of your usage of a VPN for privacy and anonymity, when selecting such a service, what are the key features or capabilities that you prioritize?</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>P4532</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>I appreciate your response. In line with that, when selecting a VPN service, which features or capabilities do you prioritize?</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Ease of Use and Accessibility</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>P4535</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>When it comes to selecting a VPN service, could you please share the features or capabilities you consider to be most important?</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Cost and Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>P4543</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Thank you for your detailed explanation on why you use a VPN service. It could be access to geographically restricted content, ensure online anonymity, secure connection on public WiFi and preventing ISP tracking. Now, I'd like to know what are the most important features or capabilities you consider when choosing a VPN?</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Ease of Use and Accessibility</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>P4547</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>That's vital indeed, maintaining privacy and anonymity online is a key aspect of using VPN services. Now, when selecting a VPN, could you please share with me the most significant features or capabilities you consider?</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>P4549</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>When choosing a VPN, what are the most important features or capabilities that you consider?</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>P4550</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Thank you for sharing your primary use case for a VPN. Now, when choosing a VPN service, could you let me know the most important features or capabilities that you consider?</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Ease of Use and Accessibility</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>P4553</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Thank you for sharing that. Now, when it comes to picking a VPN, could you please tell me what features or capabilities are most significant to you?</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Ease of Use and Accessibility</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>P4555</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>You've shared some valuable insights about why you use a VPN service. Let's delve a bit deeper. In your opinion, what are the most important features or capabilities that you consider when choosing a VPN?</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
           <t>P4559</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Able to access my local media while out of the country as I travel.</t>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>I appreciate your insights. Now, when it comes to selecting a VPN, could you please tell me what are the most crucial features or capabilities you consider?</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>P4561</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Thank you for sharing. Now, when you're choosing a VPN, could you tell me what are the most important features or capabilities you consider?</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>P4566</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>When you are selecting a VPN service, could you please tell me what particular features or capabilities you consider to be the most important?</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Performance and Reliability</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>P4568</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>When choosing a VPN, what are the most important features or capabilities that you consider?</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>P4570</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>When choosing a VPN, what are the most important features or capabilities that you consider?</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>P4573</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>When selecting a VPN service, could you tell me about the key features or capabilities you take into consideration?</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Performance and Reliability</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>P4709</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Considering your use of VPN services, could you please share what features or capabilities you find most crucial when making your selection?</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>P4711</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Thank you for your response. Now, when it comes to choosing a VPN, could you share which features or capabilities you consider most important?</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Ease of Use and Accessibility</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>P4724</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Thank you for your response. Now, when choosing a VPN, could you tell me what are the most important features or capabilities that you take into consideration?</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Cost and Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>P4725</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Given your use of a VPN service, what do you regard as the most essential features or capabilities when making your selection?</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>P4728</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>I appreciate your detailed response about why you use a VPN service. Now, I'd love to understand more about your preferences when it comes to choosing a VPN. Could you please share the most important features or capabilities that you consider when selecting a VPN?</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>P4732</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>I see, protecting your online privacy and anonymity is important. Given that, when it comes to selecting a VPN, what would you say are the most essential features or capabilities that you take into account?</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>P4735</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>I really appreciate your detailed response. Can we discuss a bit about your preferences when choosing a VPN? What are the most important features or capabilities that you consider?</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Cost and Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>P4736</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>That's understandable. Those are certainly key reasons many people use VPN services. Now, when you're considering which VPN to use, what are the most significant features or capabilities you look at?</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Ease of Use and Accessibility</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>P4741</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>I consider the speed of the vpn and the locations available to me.</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Performance and Reliability</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>P4742</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>When you're choosing a VPN service, what are the most important features or capabilities you consider?</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Ease of Use and Accessibility</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>P4746</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>When it comes to selecting a VPN, could you please share what you consider to be the most essential features or capabilities?</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>P4748</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>I see that you use a VPN service for various reasons: accessing region-restricted content, enhancing privacy and anonymity, securing your connection especially on public WiFi, and avoiding ISP tracking. Considering these, what features or capabilities do you find most important when choosing a VPN?</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Ease of Use and Accessibility</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>P4750</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>When choosing a VPN, what are the most important features or capabilities that you consider?</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>P4751</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>When choosing a VPN, what are the most important features or capabilities that you consider?</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>P4754</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>I see that you use a VPN for various purposes including accessing unavailable content, protecting your privacy, securing your connection, and preventing ISP tracking. I'm glad to hear that. Now, when going about selecting a VPN, I'd like to know what the most crucial features or capabilities are for you that guide your decision. Can you tell me a bit about that?</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>P4760</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>When you are deciding on a VPN service to use, could you tell me which features or capabilities matter most to you?</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Ease of Use and Accessibility</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>P4763</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>When choosing a VPN, what are the most important features or capabilities that you consider?</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>P4765</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Given that you use a VPN for various reasons including accessing geo-restricted content, online privacy, securing your connection on public WiFi, and preventing ISP tracking, what are the crucial features or capabilities you evaluate when opting for a VPN service?</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>P4775</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>I am glad that you find a VPN useful for securing your connection on public WiFi networks. Now, I am curious about your preferences. Can you tell me what you think are the most important features or capabilities when you are choosing a VPN service?</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>P4781</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>When it comes to choosing a VPN, could you tell me what are the most important features or capabilities that you consider?</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>P4790</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>When you're picking out a VPN to use, could you share with me the features or capabilities that you regard as most valuable or critical?</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Ease of Use and Accessibility</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>P4801</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>When it comes to selecting a VPN, what are the most crucial features or capabilities that you take into account?</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Ease of Use and Accessibility</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>P4804</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>When choosing a VPN, what are the most important features or capabilities that you consider?</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>P4805</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>I appreciate your detailed response about your reasons for using a VPN. Given those reasons, could you tell me what are the most important features or capabilities you consider when choosing a VPN service?</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>P4807</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>When choosing a VPN, what are the most important features or capabilities that you consider?</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Cost and Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>P4808</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>I see, accessing geographically restricted content, online privacy, and securing your internet connection on public WiFi are key reasons you use a VPN. Now, when it comes to picking a VPN service, what features or capabilities are most important to you?</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Ease of Use and Accessibility</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>P4809</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>That's insightful information, thank you. Could you now tell me, when you are choosing a VPN, what are the most important features or capabilities that you take into consideration?</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Cost and Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>P4810</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>When you're deciding on a VPN service to use, what would you say are the most important features or capabilities that you consider?</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>P4812</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>When it comes to choosing a VPN, could you tell me which features or capabilities are most critical in your decision-making process?</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>P4813</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>That's important indeed, being able to maintain your online privacy and anonymity. When it comes to choosing a VPN, what are the most important features or capabilities that you take into account?</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>P4814</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>When you're in the process of choosing a VPN, could you outline the key features or capabilities that you hold in high regard or consider to be the most important?</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>P4816</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>I'm glad to hear how you find VPNs useful. Now, could you specify what are the most important features or capabilities that you take into account when you're choosing a VPN service?</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>P4818</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>When you are choosing a VPN service, what specific features or capabilities do you look for or consider the most important?</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>P4820</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>When selecting a VPN, what are the crucial features or capabilities you look out for?</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>P4822</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Understandable, safeguarding privacy and anonymity online is important. Now when it comes to selecting a VPN, what are the most important features or capabilities that you take into consideration?</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>P4824</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>That's great insight, thank you. Now, when it comes to choosing a VPN, could you share what features or capabilities are most important to you?</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>P4825</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>I like to have identity and security protection from any hackers that make browsing the internet less safe for me and my family. It’s also nice to change my location to find anything that’s unavailable in my country.</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>P4826</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>I appreciate your response. Now, when it comes to choosing a VPN, could you share with me what features or capabilities you consider most significant?</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>P4829</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Fast speeds and a reliable connection are the two most important features I look for when choosing a VPN.</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Performance and Reliability</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>P4830</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>I think ease of use and reliability are both key.</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Ease of Use and Accessibility</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>P4832</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>The most important thing is keeping my location private to anyone.</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>P4833</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Data security.</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>P4835</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>When selecting a VPN service, which features or capabilities do you deem most essential?</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>P4840</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>That's insightful. Now, when it comes to selecting a VPN, could you share what features or capabilities you find essential?</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>P4843</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>The ability to choose what server you want is essentially the most important thing.</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Ease of Use and Accessibility</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>P4845</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Fast speeds, and good value for fast performance.</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Cost and Value, Performance and Reliability</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>P4846</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>How fast it works.</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Performance and Reliability</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>P4847</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>privacy cost convenience.</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Cost and Value, Privacy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>vpn_selection</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>P4848</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>cheap and affordable.</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Cost and Value</t>
         </is>
       </c>
     </row>
